--- a/res_log/res.xlsx
+++ b/res_log/res.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25580" windowHeight="18960"/>
+    <workbookView windowHeight="23720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>efcore</t>
   </si>
@@ -51,6 +51,33 @@
   <si>
     <t>Bert</t>
   </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Multi-triage</t>
+  </si>
+  <si>
+    <t>Multi-triage + Code</t>
+  </si>
+  <si>
+    <t>Multi-triage + ASL</t>
+  </si>
+  <si>
+    <t>Multi-triage + Code + ASL</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>n_classes</t>
+  </si>
+  <si>
+    <t>aspnet</t>
+  </si>
+  <si>
+    <t>Bert + Code</t>
+  </si>
 </sst>
 </file>
 
@@ -62,10 +89,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -535,16 +568,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,124 +583,136 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2276,6 +2318,1106 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Dev</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Bert/Code</a:t>
+            </a:r>
+            <a:endParaRPr altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi-triage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi-triage + Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bert + Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="605296026"/>
+        <c:axId val="144894190"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="605296026"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144894190"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144894190"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605296026"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Btype</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Bert/Code</a:t>
+            </a:r>
+            <a:endParaRPr altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.084992406461411"/>
+          <c:y val="0.173578751164958"/>
+          <c:w val="0.884633439182659"/>
+          <c:h val="0.6047064305685"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi-triage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi-triage + Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bert + Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$37:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="678979789"/>
+        <c:axId val="575611985"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="678979789"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575611985"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="575611985"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678979789"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2396,6 +3538,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -4010,20 +5232,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>550545</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62230</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74930</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>173990</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4031,7 +6285,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1769745" y="2835910"/>
+        <a:off x="15829915" y="615950"/>
         <a:ext cx="4572000" cy="2885440"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4044,16 +6298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>544830</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>67945</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>196215</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4061,7 +6315,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1764030" y="5845175"/>
+        <a:off x="15676880" y="7412355"/>
         <a:ext cx="4570730" cy="2885440"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4074,16 +6328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>271145</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196215</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>207010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4091,12 +6345,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6537960" y="2858135"/>
+        <a:off x="15772130" y="3935730"/>
         <a:ext cx="4570730" cy="2885440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1202690</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61595</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>189865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="图表 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3011805" y="9328785"/>
+        <a:ext cx="5281295" cy="3662680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="图表 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8321040" y="9317355"/>
+        <a:ext cx="5622925" cy="3653155"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4355,19 +6669,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="13.9326923076923" customWidth="1"/>
-    <col min="5" max="5" width="10.7307692307692" customWidth="1"/>
-    <col min="6" max="6" width="11.6923076923077" customWidth="1"/>
-    <col min="7" max="7" width="11.3653846153846" customWidth="1"/>
+    <col min="1" max="1" width="27.3942307692308" customWidth="1"/>
+    <col min="2" max="2" width="18.2596153846154" customWidth="1"/>
+    <col min="3" max="3" width="25.1538461538462" customWidth="1"/>
+    <col min="4" max="4" width="17.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="16.3461538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9">
@@ -4572,6 +6888,507 @@
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.62</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11">
+        <v>0.62</v>
+      </c>
+      <c r="E11">
+        <v>0.62</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1740</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.268</v>
+      </c>
+      <c r="C12">
+        <v>0.265</v>
+      </c>
+      <c r="D12">
+        <v>0.45</v>
+      </c>
+      <c r="E12">
+        <v>0.44</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1634</v>
+      </c>
+      <c r="G12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="C13">
+        <v>0.36</v>
+      </c>
+      <c r="D13">
+        <v>0.49</v>
+      </c>
+      <c r="E13">
+        <v>0.48</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1316</v>
+      </c>
+      <c r="G13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.71</v>
+      </c>
+      <c r="C14">
+        <v>0.73</v>
+      </c>
+      <c r="D14">
+        <v>0.73</v>
+      </c>
+      <c r="E14">
+        <v>0.73</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1006</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2"/>
+      <c r="C15"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="3"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.14</v>
+      </c>
+      <c r="D20">
+        <v>0.38</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1740</v>
+      </c>
+      <c r="G20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.178</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>0.39</v>
+      </c>
+      <c r="E21">
+        <v>0.38</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1634</v>
+      </c>
+      <c r="G21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0.12</v>
+      </c>
+      <c r="C22">
+        <v>0.13</v>
+      </c>
+      <c r="D22">
+        <v>0.39</v>
+      </c>
+      <c r="E22">
+        <v>0.37</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1316</v>
+      </c>
+      <c r="G22">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0.04</v>
+      </c>
+      <c r="C23">
+        <v>0.003</v>
+      </c>
+      <c r="D23">
+        <v>0.29</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1006</v>
+      </c>
+      <c r="G23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="4">
+        <f>SUM(F20:F23)</f>
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="3"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0.62</v>
+      </c>
+      <c r="C28">
+        <v>0.6</v>
+      </c>
+      <c r="D28">
+        <v>0.51</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.268</v>
+      </c>
+      <c r="C29">
+        <v>0.265</v>
+      </c>
+      <c r="D29">
+        <v>0.34</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0.3</v>
+      </c>
+      <c r="C30">
+        <v>0.36</v>
+      </c>
+      <c r="D30">
+        <v>0.34</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>0.71</v>
+      </c>
+      <c r="C31">
+        <v>0.73</v>
+      </c>
+      <c r="D31">
+        <v>0.71</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="3"/>
+      <c r="D33"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0.2</v>
+      </c>
+      <c r="C37">
+        <v>0.14</v>
+      </c>
+      <c r="D37">
+        <v>0.31</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0.178</v>
+      </c>
+      <c r="C38">
+        <v>0.2</v>
+      </c>
+      <c r="D38">
+        <v>0.295</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>0.12</v>
+      </c>
+      <c r="C39">
+        <v>0.13</v>
+      </c>
+      <c r="D39">
+        <v>0.41</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>0.04</v>
+      </c>
+      <c r="C40">
+        <v>0.003</v>
+      </c>
+      <c r="D40">
+        <v>0.15</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="3"/>
+      <c r="D42"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="3"/>
+      <c r="D73"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="3"/>
+      <c r="D74"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="3"/>
+      <c r="D75"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76" s="3"/>
+      <c r="D76"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/res_log/res.xlsx
+++ b/res_log/res.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23720"/>
+    <workbookView windowWidth="28260" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>efcore</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Bert + Code</t>
+  </si>
+  <si>
+    <t>RoBerta</t>
+  </si>
+  <si>
+    <t>RoBerta + Code</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,9 +712,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2671,6 +2674,147 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RoBerta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RoBerta + Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$28:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3220,6 +3364,147 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RoBerta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$37:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RoBerta + Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>efcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elastic Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roslyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aspnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$37:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6358,16 +6643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1202690</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>916940</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>61595</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>189865</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1626870</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6375,8 +6660,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3011805" y="9328785"/>
-        <a:ext cx="5281295" cy="3662680"/>
+        <a:off x="916940" y="8763000"/>
+        <a:ext cx="6539230" cy="4527550"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6394,10 +6679,10 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>168910</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153035</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6406,7 +6691,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8321040" y="9317355"/>
-        <a:ext cx="5622925" cy="3653155"/>
+        <a:ext cx="6629400" cy="4165600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6671,8 +6956,8 @@
   <sheetPr/>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6905,7 +7190,7 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
@@ -6928,7 +7213,7 @@
       <c r="E11">
         <v>0.62</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1740</v>
       </c>
       <c r="G11">
@@ -6951,7 +7236,7 @@
       <c r="E12">
         <v>0.44</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1634</v>
       </c>
       <c r="G12">
@@ -6974,7 +7259,7 @@
       <c r="E13">
         <v>0.48</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1316</v>
       </c>
       <c r="G13">
@@ -6997,7 +7282,7 @@
       <c r="E14">
         <v>0.73</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1006</v>
       </c>
       <c r="G14">
@@ -7006,18 +7291,15 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2"/>
-      <c r="C15"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="3"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="7:8">
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -7035,7 +7317,7 @@
       <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
@@ -7058,7 +7340,7 @@
       <c r="E20">
         <v>0.4</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1740</v>
       </c>
       <c r="G20">
@@ -7081,7 +7363,7 @@
       <c r="E21">
         <v>0.38</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1634</v>
       </c>
       <c r="G21">
@@ -7104,7 +7386,7 @@
       <c r="E22">
         <v>0.37</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>1316</v>
       </c>
       <c r="G22">
@@ -7127,7 +7409,7 @@
       <c r="E23">
         <v>0.3</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>1006</v>
       </c>
       <c r="G23">
@@ -7135,16 +7417,14 @@
       </c>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <f>SUM(F20:F23)</f>
         <v>5696</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="3"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -7159,13 +7439,17 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -7178,8 +7462,14 @@
       <c r="D28">
         <v>0.51</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>0.43</v>
+      </c>
+      <c r="F28">
+        <v>0.51</v>
+      </c>
+      <c r="G28">
+        <v>0.44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7195,12 +7485,16 @@
       <c r="D29">
         <v>0.34</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>0.33</v>
       </c>
-      <c r="F29"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="F29">
+        <v>0.31</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
@@ -7215,14 +7509,16 @@
       <c r="D30">
         <v>0.34</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>0.36</v>
       </c>
-      <c r="F30"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="F30">
+        <v>0.31</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -7235,25 +7531,28 @@
       <c r="D31">
         <v>0.71</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>0.74</v>
+      </c>
+      <c r="F31">
+        <v>0.71</v>
+      </c>
+      <c r="G31">
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="2"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="3"/>
-      <c r="D33"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="4"/>
+      <c r="E34" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -7266,11 +7565,17 @@
       <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -7283,11 +7588,17 @@
       <c r="D37">
         <v>0.31</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>0.41</v>
       </c>
+      <c r="F37">
+        <v>0.39</v>
+      </c>
+      <c r="G37">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -7300,11 +7611,17 @@
       <c r="D38">
         <v>0.295</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0.25</v>
       </c>
+      <c r="F38">
+        <v>0.27</v>
+      </c>
+      <c r="G38">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -7320,8 +7637,11 @@
       <c r="E39" s="3">
         <v>0.45</v>
       </c>
+      <c r="F39">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -7337,58 +7657,59 @@
       <c r="E40" s="3">
         <v>0.31</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="4"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="3"/>
-      <c r="D42"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="4"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="4"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="4"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="4"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="4"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="3:5">
       <c r="C73" s="3"/>
-      <c r="D73"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74" spans="3:5">
       <c r="C74" s="3"/>
-      <c r="D74"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" spans="3:5">
       <c r="C75" s="3"/>
-      <c r="D75"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="3:5">
       <c r="C76" s="3"/>
-      <c r="D76"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="4"/>
+      <c r="E77" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
